--- a/lecture_3/code/outputs_discussion.xlsx
+++ b/lecture_3/code/outputs_discussion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.monash.edu\home\User031\ihun0004\Documents\111_courses\law\notes_part_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.monash.edu\home\User031\ihun0004\Documents\111_courses\law\notes_part_3\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="78">
   <si>
     <t>reg_binary</t>
   </si>
@@ -255,6 +255,15 @@
   </si>
   <si>
     <t>p-values</t>
+  </si>
+  <si>
+    <t>Pearson Correlations</t>
+  </si>
+  <si>
+    <t>time_to_med</t>
+  </si>
+  <si>
+    <t>Spearman Correlations</t>
   </si>
 </sst>
 </file>
@@ -293,12 +302,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3945,550 +3957,1303 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="10" width="14.7109375" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="3">
         <v>-3.2786596779729803E-2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="3">
         <v>-1.21711370913575E-3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="3">
         <v>-8.9070123346504299E-2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="3">
+        <v>-0.13453399910642599</v>
+      </c>
+      <c r="G3" s="3">
         <v>-0.107004703224248</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H3" s="3">
         <v>0.15124556523775001</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I3" s="3">
         <v>8.5168685112795503E-2</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J3" s="3">
         <v>3.4814135571721298E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="3">
         <v>-3.2786596779729803E-2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="3">
         <v>4.4261756810344499E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="3">
         <v>0.65688873516481505</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="3">
+        <v>0.60403697033104198</v>
+      </c>
+      <c r="G4" s="3">
         <v>0.62913300342506795</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H4" s="3">
         <v>9.3882783254644803E-2</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I4" s="3">
         <v>9.2708806408341296E-2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J4" s="3">
         <v>0.82611232104001997</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="3">
         <v>-1.21711370913575E-3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="3">
         <v>4.4261756810344499E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="3">
         <v>3.7644395138450297E-2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="3">
+        <v>4.5005118379098999E-2</v>
+      </c>
+      <c r="G5" s="3">
         <v>7.90516961627626E-2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H5" s="3">
         <v>0.32410315428359199</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I5" s="3">
         <v>0.205666045470278</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J5" s="3">
         <v>4.0280400290023301E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="3">
         <v>-8.9070123346504299E-2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="3">
         <v>0.65688873516481505</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="3">
         <v>3.7644395138450297E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="3">
+        <v>0.41575869459738002</v>
+      </c>
+      <c r="G6" s="3">
         <v>0.484587548172348</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H6" s="3">
         <v>-2.1365846126880202E-2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I6" s="3">
         <v>9.2040418597025206E-3</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J6" s="3">
         <v>0.59025724278483804</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-0.13453399910642599</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.60403697033104198</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.5005118379098999E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.41575869459738002</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.90361828147600298</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-2.1981910063362801E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.7361687163591801E-3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.29517579616246897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="3">
         <v>-0.107004703224248</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C8" s="3">
         <v>0.62913300342506795</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D8" s="3">
         <v>7.90516961627626E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E8" s="3">
         <v>0.484587548172348</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F8" s="3">
+        <v>0.90361828147600298</v>
+      </c>
+      <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H8" s="3">
         <v>-1.45226808072804E-2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I8" s="3">
         <v>1.9360424264959101E-2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J8" s="3">
         <v>0.33108733795407302</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="3">
         <v>0.15124556523775001</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C9" s="3">
         <v>9.3882783254644803E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D9" s="3">
         <v>0.32410315428359199</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E9" s="3">
         <v>-2.1365846126880202E-2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F9" s="3">
+        <v>-2.1981910063362801E-2</v>
+      </c>
+      <c r="G9" s="3">
         <v>-1.45226808072804E-2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I9" s="3">
         <v>0.81677537795228095</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J9" s="3">
         <v>0.12272925527801699</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B10" s="3">
         <v>8.5168685112795503E-2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C10" s="3">
         <v>9.2708806408341296E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D10" s="3">
         <v>0.205666045470278</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E10" s="3">
         <v>9.2040418597025206E-3</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F10" s="3">
+        <v>2.7361687163591801E-3</v>
+      </c>
+      <c r="G10" s="3">
         <v>1.9360424264959101E-2</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H10" s="3">
         <v>0.81677537795228095</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J10" s="3">
         <v>0.15345831798102799</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B11" s="3">
         <v>3.4814135571721298E-2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C11" s="3">
         <v>0.82611232104001997</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D11" s="3">
         <v>4.0280400290023301E-3</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E11" s="3">
         <v>0.59025724278483804</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F11" s="3">
+        <v>0.29517579616246897</v>
+      </c>
+      <c r="G11" s="3">
         <v>0.33108733795407302</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H11" s="3">
         <v>0.12272925527801699</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I11" s="3">
         <v>0.15345831798102799</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B15" s="3">
         <v>0</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C15" s="3">
         <v>0.65165861617314602</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D15" s="3">
         <v>0.98663230830179205</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E15" s="3">
         <v>0.21681480898299799</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F15" s="3">
+        <v>0.105452297638955</v>
+      </c>
+      <c r="G15" s="3">
         <v>0.140653874459226</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H15" s="3">
         <v>3.5281005955761002E-2</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I15" s="3">
         <v>0.237704847008018</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J15" s="3">
         <v>0.63165828003386104</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B16" s="3">
         <v>0.65165861617314602</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C16" s="3">
         <v>0</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D16" s="3">
         <v>0.54533961906349104</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E16" s="3">
         <v>4.3727980617128402E-25</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F16" s="3">
+        <v>1.10297406739551E-15</v>
+      </c>
+      <c r="G16" s="3">
         <v>3.1848800902033902E-22</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H16" s="3">
         <v>0.19641813067987901</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I16" s="3">
         <v>0.20209708313517699</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J16" s="3">
         <v>3.27005264627227E-49</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B17" s="3">
         <v>0.98663230830179205</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C17" s="3">
         <v>0.54533961906349104</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E17" s="3">
         <v>0.605139338782266</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F17" s="3">
+        <v>0.59221700394130306</v>
+      </c>
+      <c r="G17" s="3">
         <v>0.280872307850628</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H17" s="3">
         <v>4.7881569589287599E-6</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I17" s="3">
         <v>4.3134407057124199E-3</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J17" s="3">
         <v>0.95613109302392296</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B18" s="3">
         <v>0.21681480898299799</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C18" s="3">
         <v>4.3727980617128402E-25</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D18" s="3">
         <v>0.605139338782266</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E18" s="3">
         <v>0</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F18" s="3">
+        <v>1.8021716290091601E-7</v>
+      </c>
+      <c r="G18" s="3">
         <v>1.3972139127128701E-12</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H18" s="3">
         <v>0.76804788403240898</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I18" s="3">
         <v>0.89890977214837198</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J18" s="3">
         <v>2.06438560362838E-19</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.105452297638955</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1.10297406739551E-15</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.59221700394130306</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.8021716290091601E-7</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3.8208764610382697E-54</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.79227527432391298</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.97385231413319995</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3.2864757711963301E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B20" s="3">
         <v>0.140653874459226</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C20" s="3">
         <v>3.1848800902033902E-22</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D20" s="3">
         <v>0.280872307850628</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E20" s="3">
         <v>1.3972139127128701E-12</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F20" s="3">
+        <v>3.8208764610382697E-54</v>
+      </c>
+      <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H20" s="3">
         <v>0.84236377898641901</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I20" s="3">
         <v>0.79091019813562402</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J20" s="3">
         <v>3.26470866634824E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B21" s="3">
         <v>3.5281005955761002E-2</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C21" s="3">
         <v>0.19641813067987901</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D21" s="3">
         <v>4.7881569589287599E-6</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E21" s="3">
         <v>0.76804788403240898</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F21" s="3">
+        <v>0.79227527432391298</v>
+      </c>
+      <c r="G21" s="3">
         <v>0.84236377898641901</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H21" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I21" s="3">
         <v>9.6800594264268698E-48</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J21" s="3">
         <v>9.0756948595099807E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B22" s="3">
         <v>0.237704847008018</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C22" s="3">
         <v>0.20209708313517699</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D22" s="3">
         <v>4.3134407057124199E-3</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E22" s="3">
         <v>0.89890977214837198</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F22" s="3">
+        <v>0.97385231413319995</v>
+      </c>
+      <c r="G22" s="3">
         <v>0.79091019813562402</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H22" s="3">
         <v>9.6800594264268698E-48</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J22" s="3">
         <v>3.40495124937817E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B23" s="3">
         <v>0.63165828003386104</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C23" s="3">
         <v>3.27005264627227E-49</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D23" s="3">
         <v>0.95613109302392296</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E23" s="3">
         <v>2.06438560362838E-19</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F23" s="3">
+        <v>3.2864757711963301E-4</v>
+      </c>
+      <c r="G23" s="3">
         <v>3.26470866634824E-6</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H23" s="3">
         <v>9.0756948595099807E-2</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I23" s="3">
         <v>3.40495124937817E-2</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4.2377345154012001E-2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>-5.7723259804724002E-2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-0.114619644388517</v>
+      </c>
+      <c r="F27" s="3">
+        <v>6.01679320151811E-2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-2.5474761337600099E-2</v>
+      </c>
+      <c r="H27" s="3">
+        <v>7.0266462867872206E-2</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7.0266462867872206E-2</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4.3041376927184197E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4.2377345154012001E-2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5.6818519753720598E-2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.57588015609994703</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.32641417197524097</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.356476887217897</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.161377373356137</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.161377373356137</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.99985963807822198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3">
+        <v>-5.7723259804724002E-2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5.6818519753720598E-2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>9.4013992515452796E-2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2.77536611750628E-2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.16040109486999901</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.17048954601633901</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.17048954601633901</v>
+      </c>
+      <c r="J29" s="3">
+        <v>5.5851593204707298E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3">
+        <v>-0.114619644388517</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.57588015609994703</v>
+      </c>
+      <c r="D30" s="3">
+        <v>9.4013992515452796E-2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.240585911334219</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.394895290805725</v>
+      </c>
+      <c r="H30" s="3">
+        <v>8.0846207538985804E-2</v>
+      </c>
+      <c r="I30" s="3">
+        <v>8.0846207538985804E-2</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.57491935339585498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="3">
+        <v>6.01679320151811E-2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.32641417197524097</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2.77536611750628E-2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.240585911334219</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3.2034308600875298E-2</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.15641847302319101</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.15641847302319101</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.32642568489625401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="3">
+        <v>-2.5474761337600099E-2</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.356476887217897</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.16040109486999901</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.394895290805725</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3.2034308600875298E-2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1.53255405324529E-2</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1.53255405324529E-2</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.35496599902283199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="3">
+        <v>7.0266462867872206E-2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.161377373356137</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.17048954601633901</v>
+      </c>
+      <c r="E33" s="3">
+        <v>8.0846207538985804E-2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.15641847302319101</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1.53255405324529E-2</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.16221871239706401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="3">
+        <v>7.0266462867872206E-2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.161377373356137</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.17048954601633901</v>
+      </c>
+      <c r="E34" s="3">
+        <v>8.0846207538985804E-2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.15641847302319101</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1.53255405324529E-2</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.16221871239706401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3">
+        <v>4.3041376927184197E-2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.99985963807822198</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5.5851593204707298E-2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.57491935339585498</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.32642568489625401</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.35496599902283199</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.16221871239706401</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.16221871239706401</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.55947224377188398</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.42645215879791998</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.111519806015342</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.47065313296864703</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.72647835860366095</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.33026624928127402</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.33026624928127402</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0.55332897884543397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.55947224377188398</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.43741182423924602</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2.3622875000753898E-18</v>
+      </c>
+      <c r="F40" s="3">
+        <v>6.5309349880154398E-5</v>
+      </c>
+      <c r="G40" s="3">
+        <v>4.7879068549510003E-7</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2.5728970444995902E-2</v>
+      </c>
+      <c r="I40" s="3">
+        <v>2.5728970444995902E-2</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.42645215879791998</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.43741182423924602</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.195790701765473</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.74124511556214401</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2.7885134172137501E-2</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1.8371922762953199E-2</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1.8371922762953199E-2</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0.44526377429481601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.111519806015342</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2.3622875000753898E-18</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.195790701765473</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3.4433091741133E-3</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1.7186225712657101E-8</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.26370114633358799</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.26370114633358799</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2.7684337160548499E-18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.47065313296864703</v>
+      </c>
+      <c r="C43" s="3">
+        <v>6.5309349880154398E-5</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.74124511556214401</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3.4433091741133E-3</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.70308508583609197</v>
+      </c>
+      <c r="H43" s="3">
+        <v>5.93774368508765E-2</v>
+      </c>
+      <c r="I43" s="3">
+        <v>5.93774368508765E-2</v>
+      </c>
+      <c r="J43" s="3">
+        <v>6.5268289409665096E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.72647835860366095</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4.7879068549510003E-7</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2.7885134172137501E-2</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1.7186225712657101E-8</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.70308508583609197</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.83377201837352899</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0.83377201837352899</v>
+      </c>
+      <c r="J44" s="3">
+        <v>5.3929954070932402E-7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.33026624928127402</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2.5728970444995902E-2</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1.8371922762953199E-2</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.26370114633358799</v>
+      </c>
+      <c r="F45" s="3">
+        <v>5.93774368508765E-2</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.83377201837352899</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2.49573692288803E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.33026624928127402</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2.5728970444995902E-2</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1.8371922762953199E-2</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.26370114633358799</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5.93774368508765E-2</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.83377201837352899</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2.49573692288803E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.55332897884543397</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.44526377429481601</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2.7684337160548499E-18</v>
+      </c>
+      <c r="F47" s="3">
+        <v>6.5268289409665096E-5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>5.3929954070932402E-7</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2.49573692288803E-2</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2.49573692288803E-2</v>
+      </c>
+      <c r="J47" s="3">
         <v>0</v>
       </c>
     </row>
